--- a/球と平面の接触特性/Data/fine3_摩擦試験.xlsx
+++ b/球と平面の接触特性/Data/fine3_摩擦試験.xlsx
@@ -1,32 +1,248 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20415"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hokkirigawa\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Artis\Documents\TohokuUniversity\ExperimentReport2_Fine\球と平面の接触特性\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5152AE0-611F-497A-9FBE-81DCAD489CA6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4DA4A79-403A-4148-AF5A-7D13DFB0E69D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18204" windowHeight="8160" xr2:uid="{42BF14B4-0BA8-43A9-B9A8-465C4DCDF19E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{42BF14B4-0BA8-43A9-B9A8-465C4DCDF19E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
+  <si>
+    <t>ボール半径 R，mm</t>
+    <rPh sb="3" eb="5">
+      <t>ハンケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>垂直荷重 W，N</t>
+    <rPh sb="0" eb="2">
+      <t>スイチョク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カジュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>すべり速度 v，mm/s</t>
+    <rPh sb="3" eb="5">
+      <t>ソクド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ストローク l，mm</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>同一条件の試行回数 N，cycles</t>
+    <rPh sb="0" eb="2">
+      <t>ドウイツ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="5" eb="9">
+      <t>シコウカイスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>潤滑状態</t>
+    <rPh sb="0" eb="2">
+      <t>ジュンカツ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大気中無潤滑</t>
+    <rPh sb="0" eb="3">
+      <t>タイキチュウ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>ムジュンカツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ビッカース硬さ</t>
+    <rPh sb="5" eb="6">
+      <t>カタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>横</t>
+    <rPh sb="0" eb="1">
+      <t>ヨコ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>縦</t>
+    <rPh sb="0" eb="1">
+      <t>タテ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>対角線長さ(横)[μm]</t>
+    <rPh sb="0" eb="3">
+      <t>タイカクセン</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ナガ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ヨコ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>対角線長さ(縦)[μm]</t>
+    <rPh sb="0" eb="3">
+      <t>タイカクセン</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ナガ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>タテ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>対角線長さの平均値[μm]</t>
+    <rPh sb="0" eb="3">
+      <t>タイカクセン</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ナガ</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>ヘイキンチ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ビッカース硬さHv[GPa]</t>
+    <rPh sb="5" eb="6">
+      <t>カタ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>平均値Hv[GPa]</t>
+    <rPh sb="0" eb="3">
+      <t>ヘイキンチ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>標準偏差[GPa]</t>
+    <rPh sb="0" eb="2">
+      <t>ヒョウジュン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヘンサ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>試験回数</t>
+    <rPh sb="0" eb="2">
+      <t>シケン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カイスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0.98[N]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4.9[N]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>9.8[N]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>標準偏差</t>
+    <rPh sb="0" eb="4">
+      <t>ヒョウジュンヘンサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0.098[N]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0.196[N]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0.49[N]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>平均値μ</t>
+    <rPh sb="0" eb="3">
+      <t>ヘイキンチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="3">
+    <numFmt numFmtId="180" formatCode="0.0000"/>
+    <numFmt numFmtId="181" formatCode="0.00000"/>
+    <numFmt numFmtId="183" formatCode="0.0"/>
+  </numFmts>
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -41,6 +257,12 @@
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="Osaka"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="2">
@@ -65,7 +287,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -74,6 +296,19 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="183" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -93,9 +328,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 テーマ">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -133,7 +368,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -239,7 +474,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -381,7 +616,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -389,237 +624,722 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38CEC085-C294-44EB-82A6-4DE87D2FDE88}">
-  <dimension ref="A2:I11"/>
+  <dimension ref="C2:N13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <cols>
+    <col min="3" max="3" width="10.3984375" customWidth="1"/>
+    <col min="7" max="7" width="10.8984375" customWidth="1"/>
+    <col min="11" max="11" width="11.796875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A2" s="2">
+    <row r="2" spans="3:14">
+      <c r="D2" s="9">
         <v>1</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2">
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="H2" s="9">
         <v>4</v>
       </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2">
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="L2" s="9">
         <v>8</v>
       </c>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A3" s="1">
-        <v>0.98</v>
-      </c>
-      <c r="B3" s="1">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="C3" s="1">
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="D3" s="1">
-        <v>0.98</v>
-      </c>
-      <c r="E3" s="1">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="F3" s="1">
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="G3" s="1">
-        <v>9.8000000000000004E-2</v>
-      </c>
-      <c r="H3" s="1">
-        <v>0.19600000000000001</v>
-      </c>
-      <c r="I3" s="1">
-        <v>0.49</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A4">
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+    </row>
+    <row r="3" spans="3:14">
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="3:14">
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
         <v>0.67600000000000005</v>
       </c>
-      <c r="B4">
+      <c r="E4">
         <v>0.67300000000000004</v>
       </c>
-      <c r="C4">
+      <c r="F4">
         <v>0.65600000000000003</v>
       </c>
-      <c r="D4">
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
         <v>0.58099999999999996</v>
       </c>
-      <c r="E4">
+      <c r="I4">
         <v>0.60099999999999998</v>
       </c>
-      <c r="F4">
+      <c r="J4">
         <v>0.58499999999999996</v>
       </c>
-      <c r="G4">
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
         <v>0.83899999999999997</v>
       </c>
-      <c r="H4">
+      <c r="M4">
         <v>0.41699999999999998</v>
       </c>
-      <c r="I4">
+      <c r="N4">
         <v>0.61</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A5">
+    <row r="5" spans="3:14">
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
         <v>0.63500000000000001</v>
       </c>
-      <c r="B5">
+      <c r="E5">
         <v>0.61399999999999999</v>
       </c>
-      <c r="C5">
+      <c r="F5">
         <v>0.622</v>
       </c>
-      <c r="D5">
+      <c r="G5">
+        <v>2</v>
+      </c>
+      <c r="H5">
         <v>0.54600000000000004</v>
       </c>
-      <c r="E5">
+      <c r="I5">
         <v>0.53</v>
       </c>
-      <c r="F5">
+      <c r="J5">
         <v>0.56599999999999995</v>
       </c>
-      <c r="G5">
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5">
         <v>0.45400000000000001</v>
       </c>
-      <c r="H5">
+      <c r="M5">
         <v>0.41799999999999998</v>
       </c>
-      <c r="I5">
+      <c r="N5">
         <v>0.61</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A6">
+    <row r="6" spans="3:14">
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6">
         <v>0.621</v>
       </c>
-      <c r="B6">
+      <c r="E6">
         <v>0.56899999999999995</v>
       </c>
-      <c r="C6">
+      <c r="F6">
         <v>0.65800000000000003</v>
       </c>
-      <c r="D6">
+      <c r="G6">
+        <v>3</v>
+      </c>
+      <c r="H6">
         <v>0.55700000000000005</v>
       </c>
-      <c r="E6">
+      <c r="I6">
         <v>0.495</v>
       </c>
-      <c r="F6">
+      <c r="J6">
         <v>0.625</v>
       </c>
-      <c r="G6">
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
         <v>0.65600000000000003</v>
       </c>
-      <c r="H6">
+      <c r="M6">
         <v>0.65700000000000003</v>
       </c>
-      <c r="I6">
+      <c r="N6">
         <v>0.57199999999999995</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A7">
+    <row r="7" spans="3:14">
+      <c r="C7">
+        <v>4</v>
+      </c>
+      <c r="D7">
         <v>0.56399999999999995</v>
       </c>
-      <c r="B7">
+      <c r="E7">
         <v>0.56000000000000005</v>
       </c>
-      <c r="C7">
+      <c r="F7">
         <v>0.71</v>
       </c>
-      <c r="D7">
+      <c r="G7">
+        <v>4</v>
+      </c>
+      <c r="H7">
         <v>0.63800000000000001</v>
       </c>
-      <c r="E7">
+      <c r="I7">
         <v>0.49199999999999999</v>
       </c>
-      <c r="F7">
+      <c r="J7">
         <v>0.69</v>
       </c>
-      <c r="G7">
+      <c r="K7">
+        <v>4</v>
+      </c>
+      <c r="L7">
         <v>0.71799999999999997</v>
       </c>
-      <c r="H7">
+      <c r="M7">
         <v>0.63900000000000001</v>
       </c>
-      <c r="I7">
+      <c r="N7">
         <v>0.61299999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A8">
+    <row r="8" spans="3:14">
+      <c r="C8">
+        <v>5</v>
+      </c>
+      <c r="D8">
         <v>0.56000000000000005</v>
       </c>
-      <c r="B8">
+      <c r="E8">
         <v>0.60399999999999998</v>
       </c>
-      <c r="C8">
+      <c r="F8">
         <v>0.74399999999999999</v>
       </c>
-      <c r="D8">
+      <c r="G8">
+        <v>5</v>
+      </c>
+      <c r="H8">
         <v>0.61199999999999999</v>
       </c>
-      <c r="E8">
+      <c r="I8">
         <v>0.54</v>
       </c>
-      <c r="F8">
+      <c r="J8">
         <v>0.56799999999999995</v>
       </c>
-      <c r="G8">
+      <c r="K8">
+        <v>5</v>
+      </c>
+      <c r="L8">
         <v>0.55800000000000005</v>
       </c>
-      <c r="H8">
+      <c r="M8">
         <v>0.69299999999999995</v>
       </c>
-      <c r="I8">
+      <c r="N8">
         <v>0.54200000000000004</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A9">
+    <row r="9" spans="3:14">
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9">
+        <f>ROUND(AVERAGE(D4:D8), 3)</f>
+        <v>0.61099999999999999</v>
+      </c>
+      <c r="E9">
+        <f>ROUND(AVERAGE(E4:E8), 3)</f>
+        <v>0.60399999999999998</v>
+      </c>
+      <c r="F9">
+        <f t="shared" ref="E9:F9" si="0">ROUND(AVERAGE(F4:F8), 3)</f>
+        <v>0.67800000000000005</v>
+      </c>
+      <c r="G9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H9">
+        <f>ROUND(AVERAGE(H4:H8),3)</f>
+        <v>0.58699999999999997</v>
+      </c>
+      <c r="I9">
+        <f t="shared" ref="I9:J9" si="1">ROUND(AVERAGE(I4:I8),3)</f>
+        <v>0.53200000000000003</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="1"/>
+        <v>0.60699999999999998</v>
+      </c>
+      <c r="K9" t="s">
+        <v>24</v>
+      </c>
+      <c r="L9">
+        <f>ROUND(AVERAGE(L4:L8),3)</f>
+        <v>0.64500000000000002</v>
+      </c>
+      <c r="M9">
+        <f t="shared" ref="M9:N9" si="2">ROUND(AVERAGE(M4:M8),3)</f>
+        <v>0.56499999999999995</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="2"/>
+        <v>0.58899999999999997</v>
+      </c>
+    </row>
+    <row r="10" spans="3:14">
+      <c r="C10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10">
+        <f>ROUND(_xlfn.STDEV.S(D4:D8),4)</f>
+        <v>4.9299999999999997E-2</v>
+      </c>
+      <c r="E10">
+        <f t="shared" ref="E10:F10" si="3">ROUND(_xlfn.STDEV.S(E4:E8),4)</f>
+        <v>4.48E-2</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="3"/>
+        <v>4.8500000000000001E-2</v>
+      </c>
+      <c r="G10" t="s">
+        <v>20</v>
+      </c>
+      <c r="H10">
+        <f>ROUND(_xlfn.STDEV.S(H4:H8),4)</f>
+        <v>3.8199999999999998E-2</v>
+      </c>
+      <c r="I10">
+        <f t="shared" ref="I10:J10" si="4">ROUND(_xlfn.STDEV.S(I4:I8),4)</f>
+        <v>4.4200000000000003E-2</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="4"/>
+        <v>5.2200000000000003E-2</v>
+      </c>
+      <c r="K10" t="s">
+        <v>20</v>
+      </c>
+      <c r="L10">
+        <f>ROUND(_xlfn.STDEV.S(L4:L8),3)</f>
+        <v>0.14799999999999999</v>
+      </c>
+      <c r="M10">
+        <f t="shared" ref="M10:N10" si="5">ROUND(_xlfn.STDEV.S(M4:M8),3)</f>
+        <v>0.13600000000000001</v>
+      </c>
+      <c r="N10">
+        <f>ROUND(_xlfn.STDEV.S(N4:N8),4)</f>
+        <v>3.1399999999999997E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="3:14">
+      <c r="D11">
         <v>0.56699999999999995</v>
       </c>
-      <c r="B9">
+      <c r="E11">
         <v>0.63100000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A10">
+    <row r="12" spans="3:14">
+      <c r="D12">
         <v>0.57899999999999996</v>
       </c>
-      <c r="B10">
+      <c r="E12">
         <v>0.52700000000000002</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A11">
+    <row r="13" spans="3:14">
+      <c r="D13">
         <v>0.54600000000000004</v>
       </c>
-      <c r="B11">
+      <c r="E13">
         <v>0.61799999999999999</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="G2:I2"/>
-  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40AC27BB-92BE-4828-BB28-D8A484530C52}">
+  <dimension ref="B2:E9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <cols>
+    <col min="2" max="2" width="29.19921875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5">
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1">
+        <v>4</v>
+      </c>
+      <c r="E2" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5">
+      <c r="B3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.98</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.98</v>
+      </c>
+      <c r="E3" s="1">
+        <v>9.8000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5">
+      <c r="B4" s="3"/>
+      <c r="C4" s="1">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="D4" s="1">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0.19600000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5">
+      <c r="B5" s="3"/>
+      <c r="C5" s="1">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="D5" s="1">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5">
+      <c r="B6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="2">
+        <v>1</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="2:5">
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="2">
+        <v>5</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="2:5">
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="2">
+        <v>5</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="2:5">
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="C9:E9"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8586177C-5475-477A-B93D-B94486796A5A}">
+  <dimension ref="B1:L11"/>
+  <sheetViews>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2:L3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <cols>
+    <col min="6" max="6" width="18.69921875" customWidth="1"/>
+    <col min="7" max="7" width="18.5" customWidth="1"/>
+    <col min="8" max="8" width="22.8984375" customWidth="1"/>
+    <col min="9" max="9" width="22.69921875" customWidth="1"/>
+    <col min="10" max="10" width="21.09765625" customWidth="1"/>
+    <col min="11" max="11" width="13.5" customWidth="1"/>
+    <col min="12" max="12" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:12">
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="2:12">
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12">
+      <c r="B3">
+        <v>157.30000000000001</v>
+      </c>
+      <c r="C3">
+        <v>154</v>
+      </c>
+      <c r="E3" s="4">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>157.30000000000001</v>
+      </c>
+      <c r="G3" s="8">
+        <v>154</v>
+      </c>
+      <c r="H3" s="4">
+        <f>ROUNDDOWN((F3+G3)/2,2)</f>
+        <v>155.65</v>
+      </c>
+      <c r="I3" s="6">
+        <f>ROUNDDOWN(1.854*1/((H3*0.000001)^2)*9.8*0.000000001,5)</f>
+        <v>0.74995000000000001</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K3" s="5">
+        <f>ROUND(AVERAGE(I3:I7), 4)</f>
+        <v>0.74019999999999997</v>
+      </c>
+      <c r="L3" s="6">
+        <f>ROUND(_xlfn.STDEV.S(I3:I7), 5)</f>
+        <v>1.1900000000000001E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12">
+      <c r="B4">
+        <v>156</v>
+      </c>
+      <c r="C4">
+        <v>157.80000000000001</v>
+      </c>
+      <c r="E4" s="4">
+        <v>2</v>
+      </c>
+      <c r="F4" s="8">
+        <v>156</v>
+      </c>
+      <c r="G4">
+        <v>157.80000000000001</v>
+      </c>
+      <c r="H4" s="7">
+        <f t="shared" ref="H4:H7" si="0">ROUNDDOWN((F4+G4)/2,2)</f>
+        <v>156.9</v>
+      </c>
+      <c r="I4" s="6">
+        <f t="shared" ref="I4:I7" si="1">ROUNDDOWN(1.854*1/((H4*0.000001)^2)*9.8*0.000000001,5)</f>
+        <v>0.73804999999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12">
+      <c r="B5">
+        <v>157.19999999999999</v>
+      </c>
+      <c r="C5">
+        <v>154.6</v>
+      </c>
+      <c r="E5" s="4">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>157.19999999999999</v>
+      </c>
+      <c r="G5">
+        <v>154.6</v>
+      </c>
+      <c r="H5" s="7">
+        <f t="shared" si="0"/>
+        <v>155.9</v>
+      </c>
+      <c r="I5" s="6">
+        <f t="shared" si="1"/>
+        <v>0.74755000000000005</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12">
+      <c r="B6">
+        <v>157.19999999999999</v>
+      </c>
+      <c r="C6">
+        <v>155.1</v>
+      </c>
+      <c r="E6" s="4">
+        <v>4</v>
+      </c>
+      <c r="F6">
+        <v>157.19999999999999</v>
+      </c>
+      <c r="G6">
+        <v>155.1</v>
+      </c>
+      <c r="H6" s="4">
+        <f t="shared" si="0"/>
+        <v>156.15</v>
+      </c>
+      <c r="I6" s="6">
+        <f t="shared" si="1"/>
+        <v>0.74516000000000004</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12">
+      <c r="B7">
+        <v>158.4</v>
+      </c>
+      <c r="C7">
+        <v>159.19999999999999</v>
+      </c>
+      <c r="E7" s="4">
+        <v>5</v>
+      </c>
+      <c r="F7">
+        <v>158.4</v>
+      </c>
+      <c r="G7">
+        <v>159.19999999999999</v>
+      </c>
+      <c r="H7" s="7">
+        <f t="shared" si="0"/>
+        <v>158.80000000000001</v>
+      </c>
+      <c r="I7" s="6">
+        <f t="shared" si="1"/>
+        <v>0.72050000000000003</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12">
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+    </row>
+    <row r="9" spans="2:12">
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+    </row>
+    <row r="10" spans="2:12">
+      <c r="E10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+    </row>
+    <row r="11" spans="2:12">
+      <c r="E11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/球と平面の接触特性/Data/fine3_摩擦試験.xlsx
+++ b/球と平面の接触特性/Data/fine3_摩擦試験.xlsx
@@ -8,15 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Artis\Documents\TohokuUniversity\ExperimentReport2_Fine\球と平面の接触特性\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4DA4A79-403A-4148-AF5A-7D13DFB0E69D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86810B26-EA1D-4100-BFC7-761A61E45EF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{42BF14B4-0BA8-43A9-B9A8-465C4DCDF19E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{42BF14B4-0BA8-43A9-B9A8-465C4DCDF19E}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="摩擦試験結果" sheetId="1" r:id="rId1"/>
+    <sheet name="平均摩擦係数" sheetId="4" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId3"/>
+    <sheet name="実験条件" sheetId="2" r:id="rId4"/>
+    <sheet name="ビッカース硬さ" sheetId="3" r:id="rId5"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId6"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -38,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="43">
   <si>
     <t>ボール半径 R，mm</t>
     <rPh sb="3" eb="5">
@@ -231,16 +236,173 @@
       <t>ヘイキンチ</t>
     </rPh>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1mm平均値</t>
+    <rPh sb="3" eb="6">
+      <t>ヘイキンチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1mm標準偏差</t>
+    <rPh sb="3" eb="7">
+      <t>ヒョウジュンヘンサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>荷重1</t>
+    <rPh sb="0" eb="2">
+      <t>カジュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4mm平均値</t>
+    <rPh sb="3" eb="6">
+      <t>ヘイキンチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4mm標準偏差</t>
+    <rPh sb="3" eb="7">
+      <t>ヒョウジュンヘンサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>8mm平均値</t>
+    <rPh sb="3" eb="6">
+      <t>ヘイキンチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>8mm標準偏差</t>
+    <rPh sb="3" eb="7">
+      <t>ヒョウジュンヘンサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>荷重2</t>
+    <rPh sb="0" eb="2">
+      <t>カジュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>平均接触圧力[GPa]</t>
+    <rPh sb="0" eb="2">
+      <t>ヘイキン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>セッショク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>アツリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>垂直荷重 [N]</t>
+    <rPh sb="0" eb="2">
+      <t>スイチョク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カジュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>接触円面積[mm2]</t>
+    <rPh sb="0" eb="2">
+      <t>セッショク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>エン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>メンセキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Pm/Hv</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>静的接触形態</t>
+    <rPh sb="0" eb="2">
+      <t>セイテキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>セッショク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ケイタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>接触円半径[mm]</t>
+    <rPh sb="0" eb="2">
+      <t>セッショク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>エン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ハンケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>弾性接触</t>
+    <rPh sb="0" eb="4">
+      <t>ダンセイセッショク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>弾塑性接触</t>
+    <rPh sb="0" eb="5">
+      <t>ダンソセイセッショク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>弾塑性接触</t>
+    <rPh sb="0" eb="3">
+      <t>ダンソセイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>セッショク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>塑性接触</t>
+    <rPh sb="0" eb="2">
+      <t>ソセイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>セッショク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
-    <numFmt numFmtId="180" formatCode="0.0000"/>
-    <numFmt numFmtId="181" formatCode="0.00000"/>
-    <numFmt numFmtId="183" formatCode="0.0"/>
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="0.0000"/>
+    <numFmt numFmtId="177" formatCode="0.00000"/>
+    <numFmt numFmtId="178" formatCode="0.0"/>
+    <numFmt numFmtId="182" formatCode="0.000"/>
   </numFmts>
   <fonts count="3">
     <font>
@@ -287,27 +449,30 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="183" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -325,6 +490,26 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="20221013実施"/>
+      <sheetName val="K班"/>
+      <sheetName val="Sheet3"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -626,8 +811,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38CEC085-C294-44EB-82A6-4DE87D2FDE88}">
   <dimension ref="C2:N13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -638,21 +823,15 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:14">
-      <c r="D2" s="9">
+      <c r="D2">
         <v>1</v>
       </c>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="H2" s="9">
+      <c r="H2">
         <v>4</v>
       </c>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="L2" s="9">
+      <c r="L2">
         <v>8</v>
       </c>
-      <c r="M2" s="9"/>
-      <c r="N2" s="9"/>
     </row>
     <row r="3" spans="3:14">
       <c r="C3" t="s">
@@ -895,7 +1074,7 @@
         <v>0.60399999999999998</v>
       </c>
       <c r="F9">
-        <f t="shared" ref="E9:F9" si="0">ROUND(AVERAGE(F4:F8), 3)</f>
+        <f t="shared" ref="F9" si="0">ROUND(AVERAGE(F4:F8), 3)</f>
         <v>0.67800000000000005</v>
       </c>
       <c r="G9" t="s">
@@ -968,7 +1147,7 @@
         <v>0.14799999999999999</v>
       </c>
       <c r="M10">
-        <f t="shared" ref="M10:N10" si="5">ROUND(_xlfn.STDEV.S(M4:M8),3)</f>
+        <f t="shared" ref="M10" si="5">ROUND(_xlfn.STDEV.S(M4:M8),3)</f>
         <v>0.13600000000000001</v>
       </c>
       <c r="N10">
@@ -1008,6 +1187,519 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8050300A-5245-4FAE-AE83-284193FF54C9}">
+  <dimension ref="B2:L15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <cols>
+    <col min="3" max="3" width="12.59765625" customWidth="1"/>
+    <col min="4" max="4" width="14.09765625" customWidth="1"/>
+    <col min="6" max="6" width="11.3984375" customWidth="1"/>
+    <col min="7" max="7" width="14.796875" customWidth="1"/>
+    <col min="10" max="10" width="13.296875" customWidth="1"/>
+    <col min="11" max="11" width="13.69921875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:12">
+      <c r="B2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12">
+      <c r="B3" s="1">
+        <v>0.98</v>
+      </c>
+      <c r="C3">
+        <v>0.61099999999999999</v>
+      </c>
+      <c r="D3">
+        <v>4.9299999999999997E-2</v>
+      </c>
+      <c r="E3">
+        <v>0.77100000000000002</v>
+      </c>
+      <c r="F3">
+        <v>0.58699999999999997</v>
+      </c>
+      <c r="G3">
+        <v>3.8199999999999998E-2</v>
+      </c>
+      <c r="H3">
+        <v>0.30599999999999999</v>
+      </c>
+      <c r="I3" s="1">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="J3">
+        <v>0.64500000000000002</v>
+      </c>
+      <c r="K3">
+        <v>0.14799999999999999</v>
+      </c>
+      <c r="L3">
+        <v>8.9399999999999993E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12">
+      <c r="B4" s="1">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="C4">
+        <v>0.60399999999999998</v>
+      </c>
+      <c r="D4">
+        <v>4.48E-2</v>
+      </c>
+      <c r="E4">
+        <v>1.3180000000000001</v>
+      </c>
+      <c r="F4">
+        <v>0.53200000000000003</v>
+      </c>
+      <c r="G4">
+        <v>4.4200000000000003E-2</v>
+      </c>
+      <c r="H4">
+        <v>0.52300000000000002</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0.19600000000000001</v>
+      </c>
+      <c r="J4">
+        <v>0.56499999999999995</v>
+      </c>
+      <c r="K4">
+        <v>0.13600000000000001</v>
+      </c>
+      <c r="L4">
+        <v>0.113</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12">
+      <c r="B5" s="1">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="C5">
+        <v>0.67800000000000005</v>
+      </c>
+      <c r="D5">
+        <v>4.8500000000000001E-2</v>
+      </c>
+      <c r="E5">
+        <v>1.66</v>
+      </c>
+      <c r="F5">
+        <v>0.60699999999999998</v>
+      </c>
+      <c r="G5">
+        <v>5.2200000000000003E-2</v>
+      </c>
+      <c r="H5">
+        <v>0.65900000000000003</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0.49</v>
+      </c>
+      <c r="J5">
+        <v>0.58899999999999997</v>
+      </c>
+      <c r="K5">
+        <v>3.1399999999999997E-2</v>
+      </c>
+      <c r="L5">
+        <v>0.153</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12">
+      <c r="C7">
+        <v>0.61099999999999999</v>
+      </c>
+      <c r="D7">
+        <v>0.77100000000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12">
+      <c r="C8">
+        <v>0.60399999999999998</v>
+      </c>
+      <c r="D8">
+        <v>1.3180000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12">
+      <c r="C9">
+        <v>0.67800000000000005</v>
+      </c>
+      <c r="D9">
+        <v>1.66</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12">
+      <c r="C10">
+        <v>0.58699999999999997</v>
+      </c>
+      <c r="D10">
+        <v>0.30599999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12">
+      <c r="C11">
+        <v>0.53200000000000003</v>
+      </c>
+      <c r="D11">
+        <v>0.52300000000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12">
+      <c r="C12">
+        <v>0.60699999999999998</v>
+      </c>
+      <c r="D12">
+        <v>0.65900000000000003</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12">
+      <c r="C13">
+        <v>0.64500000000000002</v>
+      </c>
+      <c r="D13">
+        <v>8.9399999999999993E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12">
+      <c r="C14">
+        <v>0.56499999999999995</v>
+      </c>
+      <c r="D14">
+        <v>0.113</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12">
+      <c r="C15">
+        <v>0.58899999999999997</v>
+      </c>
+      <c r="D15">
+        <v>0.153</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5421EE1D-C968-4961-8400-2A003D1027C5}">
+  <dimension ref="B2:E27"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26:E26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <cols>
+    <col min="2" max="2" width="17.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5">
+      <c r="B2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5">
+      <c r="B3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="D3">
+        <v>0.19600000000000001</v>
+      </c>
+      <c r="E3">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5">
+      <c r="B4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4">
+        <v>2.1700000000000001E-2</v>
+      </c>
+      <c r="D4">
+        <v>2.7400000000000001E-2</v>
+      </c>
+      <c r="E4">
+        <v>3.7100000000000001E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5">
+      <c r="B5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5">
+        <v>1.48E-3</v>
+      </c>
+      <c r="D5">
+        <v>2.3500000000000001E-3</v>
+      </c>
+      <c r="E5">
+        <v>4.3299999999999996E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5">
+      <c r="B6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6">
+        <v>6.6199999999999995E-2</v>
+      </c>
+      <c r="D6">
+        <v>8.3400000000000002E-2</v>
+      </c>
+      <c r="E6">
+        <v>0.1132</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5">
+      <c r="B7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7">
+        <v>8.9399999999999993E-2</v>
+      </c>
+      <c r="D7">
+        <v>0.113</v>
+      </c>
+      <c r="E7">
+        <v>0.153</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5">
+      <c r="B8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5">
+      <c r="B12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5">
+      <c r="B13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13">
+        <v>0.98</v>
+      </c>
+      <c r="D13">
+        <v>4.8999999999999995</v>
+      </c>
+      <c r="E13">
+        <v>9.7999999999999989</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5">
+      <c r="B14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14">
+        <v>3.7100000000000001E-2</v>
+      </c>
+      <c r="D14">
+        <v>6.3500000000000001E-2</v>
+      </c>
+      <c r="E14" s="10">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5">
+      <c r="B15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15">
+        <v>4.3299999999999996E-3</v>
+      </c>
+      <c r="D15">
+        <v>1.2699999999999999E-2</v>
+      </c>
+      <c r="E15">
+        <v>2.01E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5">
+      <c r="B16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16">
+        <v>0.22600000000000001</v>
+      </c>
+      <c r="D16">
+        <v>0.38700000000000001</v>
+      </c>
+      <c r="E16">
+        <v>0.48799999999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5">
+      <c r="B17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17">
+        <v>0.30599999999999999</v>
+      </c>
+      <c r="D17">
+        <v>0.52300000000000002</v>
+      </c>
+      <c r="E17">
+        <v>0.65900000000000003</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5">
+      <c r="B18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5">
+      <c r="B21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5">
+      <c r="B22" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22">
+        <v>0.98</v>
+      </c>
+      <c r="D22">
+        <v>4.8999999999999995</v>
+      </c>
+      <c r="E22">
+        <v>9.7999999999999989</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5">
+      <c r="B23" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23">
+        <v>2.3400000000000001E-2</v>
+      </c>
+      <c r="D23" s="10">
+        <v>0.04</v>
+      </c>
+      <c r="E23">
+        <v>5.04E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5">
+      <c r="B24" t="s">
+        <v>35</v>
+      </c>
+      <c r="C24">
+        <v>1.72E-3</v>
+      </c>
+      <c r="D24">
+        <v>5.0299999999999997E-3</v>
+      </c>
+      <c r="E24">
+        <v>7.9799999999999992E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5">
+      <c r="B25" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25" s="9">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="D25">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="E25">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5">
+      <c r="B26" t="s">
+        <v>36</v>
+      </c>
+      <c r="C26">
+        <v>0.77100000000000002</v>
+      </c>
+      <c r="D26">
+        <v>1.3180000000000001</v>
+      </c>
+      <c r="E26">
+        <v>1.66</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5">
+      <c r="B27" t="s">
+        <v>37</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40AC27BB-92BE-4828-BB28-D8A484530C52}">
   <dimension ref="B2:E9"/>
   <sheetViews>
@@ -1035,7 +1727,7 @@
       </c>
     </row>
     <row r="3" spans="2:5">
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="7" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="1">
@@ -1049,7 +1741,7 @@
       </c>
     </row>
     <row r="4" spans="2:5">
-      <c r="B4" s="3"/>
+      <c r="B4" s="7"/>
       <c r="C4" s="1">
         <v>4.9000000000000004</v>
       </c>
@@ -1061,7 +1753,7 @@
       </c>
     </row>
     <row r="5" spans="2:5">
-      <c r="B5" s="3"/>
+      <c r="B5" s="7"/>
       <c r="C5" s="1">
         <v>9.8000000000000007</v>
       </c>
@@ -1076,41 +1768,41 @@
       <c r="B6" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="8">
         <v>1</v>
       </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
     </row>
     <row r="7" spans="2:5">
       <c r="B7" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="8">
         <v>5</v>
       </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
     </row>
     <row r="8" spans="2:5">
       <c r="B8" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="8">
         <v>5</v>
       </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
     </row>
     <row r="9" spans="2:5">
       <c r="B9" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1125,12 +1817,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8586177C-5475-477A-B93D-B94486796A5A}">
   <dimension ref="B1:L11"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2:L3"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -1156,25 +1848,25 @@
       <c r="C2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="L2" s="2" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1185,31 +1877,31 @@
       <c r="C3">
         <v>154</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="2">
         <v>1</v>
       </c>
       <c r="F3">
         <v>157.30000000000001</v>
       </c>
-      <c r="G3" s="8">
+      <c r="G3" s="6">
         <v>154</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" s="2">
         <f>ROUNDDOWN((F3+G3)/2,2)</f>
         <v>155.65</v>
       </c>
-      <c r="I3" s="6">
+      <c r="I3" s="4">
         <f>ROUNDDOWN(1.854*1/((H3*0.000001)^2)*9.8*0.000000001,5)</f>
         <v>0.74995000000000001</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="J3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="K3" s="5">
+      <c r="K3" s="3">
         <f>ROUND(AVERAGE(I3:I7), 4)</f>
         <v>0.74019999999999997</v>
       </c>
-      <c r="L3" s="6">
+      <c r="L3" s="4">
         <f>ROUND(_xlfn.STDEV.S(I3:I7), 5)</f>
         <v>1.1900000000000001E-2</v>
       </c>
@@ -1221,20 +1913,20 @@
       <c r="C4">
         <v>157.80000000000001</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="2">
         <v>2</v>
       </c>
-      <c r="F4" s="8">
+      <c r="F4" s="6">
         <v>156</v>
       </c>
       <c r="G4">
         <v>157.80000000000001</v>
       </c>
-      <c r="H4" s="7">
+      <c r="H4" s="5">
         <f t="shared" ref="H4:H7" si="0">ROUNDDOWN((F4+G4)/2,2)</f>
         <v>156.9</v>
       </c>
-      <c r="I4" s="6">
+      <c r="I4" s="4">
         <f t="shared" ref="I4:I7" si="1">ROUNDDOWN(1.854*1/((H4*0.000001)^2)*9.8*0.000000001,5)</f>
         <v>0.73804999999999998</v>
       </c>
@@ -1246,7 +1938,7 @@
       <c r="C5">
         <v>154.6</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="2">
         <v>3</v>
       </c>
       <c r="F5">
@@ -1255,11 +1947,11 @@
       <c r="G5">
         <v>154.6</v>
       </c>
-      <c r="H5" s="7">
+      <c r="H5" s="5">
         <f t="shared" si="0"/>
         <v>155.9</v>
       </c>
-      <c r="I5" s="6">
+      <c r="I5" s="4">
         <f t="shared" si="1"/>
         <v>0.74755000000000005</v>
       </c>
@@ -1271,7 +1963,7 @@
       <c r="C6">
         <v>155.1</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="2">
         <v>4</v>
       </c>
       <c r="F6">
@@ -1280,11 +1972,11 @@
       <c r="G6">
         <v>155.1</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="2">
         <f t="shared" si="0"/>
         <v>156.15</v>
       </c>
-      <c r="I6" s="6">
+      <c r="I6" s="4">
         <f t="shared" si="1"/>
         <v>0.74516000000000004</v>
       </c>
@@ -1296,7 +1988,7 @@
       <c r="C7">
         <v>159.19999999999999</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="2">
         <v>5</v>
       </c>
       <c r="F7">
@@ -1305,38 +1997,38 @@
       <c r="G7">
         <v>159.19999999999999</v>
       </c>
-      <c r="H7" s="7">
+      <c r="H7" s="5">
         <f t="shared" si="0"/>
         <v>158.80000000000001</v>
       </c>
-      <c r="I7" s="6">
+      <c r="I7" s="4">
         <f t="shared" si="1"/>
         <v>0.72050000000000003</v>
       </c>
     </row>
     <row r="8" spans="2:12">
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
     </row>
     <row r="9" spans="2:12">
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
     </row>
     <row r="10" spans="2:12">
-      <c r="E10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
+      <c r="E10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
     </row>
     <row r="11" spans="2:12">
-      <c r="E11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
+      <c r="E11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
